--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="481">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -5190,6 +5190,87 @@
 I have recognized your wisdom and your
 heart. You may now proceed to the final
 rung, to the Altar of Trials.</t>
+  </si>
+  <si>
+    <t>△マークがある場所のレバーだ。
+引いてみますか？&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>It's a lever with a △ mark. Do you want to
+pull it?&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Version 6 Lifeline Temple</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;「がってんタマ～！　
+　それで　どのレバーを　引けばいいタマ？
+&lt;select 1&gt;
+☆マークのあるレバー
+□マークのあるレバー
+やめる
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;I can do it! Which lever should I pull?
+&lt;select 1&gt;
+☆ Mark Lever
+□ Mark Lever
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;「がってんタマ～！　
+　それで　どのレバーを　引けばいいタマ？
+&lt;select 2&gt;
+☆マークのあるレバー
+□マークのあるレバー
+やめる
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;I can do it! Which lever should I pull?
+&lt;select 2&gt;
+☆ Mark Lever
+□ Mark Lever
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -7822,6 +7903,39 @@
         <v>448</v>
       </c>
     </row>
+    <row r="216">
+      <c r="A216" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7858,18 +7972,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="492">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -5271,6 +5271,177 @@
 &lt;case_cancel&gt;
 &lt;break&gt;
 &lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>どのボタンを　押してみますか？
+&lt;select 1&gt;
+「★」
+「▲」
+「●」
+元に戻す
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Which button would you like to press?
+&lt;select 1&gt;
+★ Button
+▲ Button
+● Button
+Reset
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;</t>
+  </si>
+  <si>
+    <t>Version 5 Map Puzzle</t>
+  </si>
+  <si>
+    <t>どのボタンを　押してみますか？
+&lt;select 2&gt;
+「★」
+「▲」
+「●」
+元に戻す
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Which button would you like to press?
+&lt;select 2&gt;
+★ Button
+▲ Button
+● Button
+Reset
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;</t>
+  </si>
+  <si>
+    <t>どのボタンを　押してみますか？
+&lt;select 3&gt;
+「★」
+「▲」
+「●」
+元に戻す
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Which button would you like to press?
+&lt;select 3&gt;
+★ Button
+▲ Button
+● Button
+Reset
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;</t>
+  </si>
+  <si>
+    <t>どのボタンを　押してみますか？
+&lt;select 4&gt;
+「★」
+「▲」
+「●」
+元に戻す
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Which button would you like to press?
+&lt;select 4&gt;
+★ Button
+▲ Button
+● Button
+Reset
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;</t>
+  </si>
+  <si>
+    <t>アストルティアの　地図がある。
+だが　本来の位置と　違う大陸があるようだ。&lt;br&gt;
+よく見ると　地図に
+「★」「▲」「●」の形をした　ボタンがある。&lt;br&gt;
+どうやら　これを押すことで
+地図を動かすことが　できそうだ。&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>It's a map of Astoltia. However, the locations
+of the continents seem to be switched around.
+&lt;br&gt;
+Looking closer, you see buttons in the shape
+of a star, triangle, and circle on the map. If
+you press one, the map will shift.&lt;bw_break&gt;</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -7936,6 +8107,61 @@
         <v>472</v>
       </c>
     </row>
+    <row r="219">
+      <c r="A219" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7972,18 +8198,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="495">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -5442,6 +5442,27 @@
 Looking closer, you see buttons in the shape
 of a star, triangle, and circle on the map. If
 you press one, the map will shift.&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>クエストを　依頼されました。
+このクエストを　受けますか？
+&lt;open_irai&gt;
+&lt;select&gt;
+うける
+やめる
+&lt;select_end&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>You've been asked to undertake a quest.
+Will you accept this quest?
+&lt;open_irai&gt;
+&lt;select&gt;
+Accept
+Decline
+&lt;select_end&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Quest accept dialogue</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -8162,6 +8183,17 @@
         <v>479</v>
       </c>
     </row>
+    <row r="224">
+      <c r="A224" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8198,18 +8230,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="524">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -5463,6 +5463,192 @@
   </si>
   <si>
     <t>Quest accept dialogue</t>
+  </si>
+  <si>
+    <t>この祭壇には　何も置かれていない。
+どうしますか？
+&lt;select&gt;
+月の像を置く
+すべての月の像を手元に戻す
+やめる
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Nothing is placed on this altar. What
+will you do?
+&lt;select&gt;
+Place Statue
+Return All Statues
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Moon statues</t>
+  </si>
+  <si>
+    <t>この祭壇には　何も置かれていない。
+どうしますか？
+&lt;select&gt;
+月の像を置く
+やめる
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Nothing is placed on this altar. What
+will you do?
+&lt;select&gt;
+Place Statue
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>&lt;center&gt;猫の祭壇
+１２のうち　両端となる祭壇には
+奇数の月の像が安置される。</t>
+  </si>
+  <si>
+    <t>"Altar of the Cat"
+The statues placed at each end are
+said to both be odd-numbered moons.</t>
+  </si>
+  <si>
+    <t>&lt;center&gt;鷲の祭壇
+左隣の猫の祭壇と　この鷲の祭壇に安置する
+月の像の数字を足すと　５となる。</t>
+  </si>
+  <si>
+    <t>"Altar of the Eagle"
+The statue placed at this altar and on
+the Altar of the Cat will add up to 5.</t>
+  </si>
+  <si>
+    <t>&lt;center&gt;犬の祭壇
+第七の月の像は　向かって右側の
+６つの祭壇のいずれかに　安置される。</t>
+  </si>
+  <si>
+    <t>"Altar of the Dog"
+The statue of the seventh moon is placed on
+one of the six altars on the right side.</t>
+  </si>
+  <si>
+    <t>&lt;center&gt;羊の祭壇
+この祭壇には　狼の祭壇より
+ひとつ小さい数字の　月の像が安置される。</t>
+  </si>
+  <si>
+    <t>"Altar of the Sheep"
+The statue placed here will be 1 less than
+that of the statue placed on the Wolf's Altar.</t>
+  </si>
+  <si>
+    <t>&lt;center&gt;猿の祭壇
+月の像の数字を比べると　竜の祭壇より犬の祭壇
+犬の祭壇より猿の祭壇の方が　数字が大きい。</t>
+  </si>
+  <si>
+    <t>"Altar of the Monkey"
+When comparing statue numbers, dog is larger
+than dragon, and monkey is larger than dog.</t>
+  </si>
+  <si>
+    <t>&lt;center&gt;竜の祭壇
+第十の月の像と　第十一の月の像は
+隣り合って安置される。</t>
+  </si>
+  <si>
+    <t>"Altar of the Dragon"
+The tenth moon statue and first moon statue
+will be placed next to one another.</t>
+  </si>
+  <si>
+    <t>&lt;center&gt;亀の祭壇
+この祭壇には　狼の祭壇より
+数字が３つ大きい　月の像が安置される。</t>
+  </si>
+  <si>
+    <t>"Altar of the Tortoise"
+The moon statue whose number is 3 higher than
+that of the Wolf's Altar will be placed here.</t>
+  </si>
+  <si>
+    <t>&lt;center&gt;狼の祭壇
+この祭壇には　６以下の数字の
+月の像が安置される。</t>
+  </si>
+  <si>
+    <t>"Altar of the Wolf"
+On this altar, statues numbered 6 and below
+will be placed here.</t>
+  </si>
+  <si>
+    <t>&lt;center&gt;鹿の祭壇
+第一の月の像は　はじまりの月の像とよばれる。</t>
+  </si>
+  <si>
+    <t>"Altar of the Deer"
+The first moon statue is called the moon
+statue of beginnings.</t>
+  </si>
+  <si>
+    <t>&lt;center&gt;蛇の祭壇
+この祭壇には　第七の月の像は安置されない。</t>
+  </si>
+  <si>
+    <t>"Altar of the Serpent"
+The seventh moon statue will not be placed
+here.</t>
+  </si>
+  <si>
+    <t>&lt;center&gt;兎の祭壇
+この祭壇には　猫の祭壇の次の数字となる
+月の像が安置される。</t>
+  </si>
+  <si>
+    <t>"Altar of the Rabbit"
+This altar will have the next statue of the
+one placed on the Cat's Altar.</t>
+  </si>
+  <si>
+    <t>&lt;center&gt;魚の祭壇
+この祭壇には　はじまりの月の像が安置される。</t>
+  </si>
+  <si>
+    <t>"Altar of the Fish"
+On this altar, the moon statue of beginnings
+will be placed.</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -8194,6 +8380,160 @@
         <v>490</v>
       </c>
     </row>
+    <row r="225">
+      <c r="A225" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8230,18 +8570,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>491</v>
+        <v>520</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>492</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>493</v>
+        <v>522</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>494</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -5590,7 +5590,7 @@
   </si>
   <si>
     <t>"Altar of the Dragon"
-The tenth moon statue and first moon statue
+The tenth moon statue and eleventh moon statue
 will be placed next to one another.</t>
   </si>
   <si>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="558">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -2154,6 +2154,74 @@
 offer?
 &lt;select&gt;
 Connected Heart
+Earnest Heart
+Undaunted Heart
+Nothing
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>6.2 story fix (BAD STRING)</t>
+  </si>
+  <si>
+    <t>悩んでいるレオーネの像に　反応している。
+どの心を与えますか？
+&lt;select&gt;
+&lt;color_gray&gt;つながる心
+ひたむきな心
+くじけぬ心
+何もしない
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>The hearts you obtained are reacting to the
+distressed statue of Leone. Which will you
+offer?
+&lt;select&gt;
+&lt;color_gray&gt;Connected Heart
+Earnest Heart
+Undaunted Heart
+Nothing
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>The hearts you obtained are reacting to the
+distressed statue of Leone. Which will you
+offer?
+&lt;select&gt;
+Connected Heart
 &lt;color_gray&gt;Earnest Heart
 Undaunted Heart
 Nothing
@@ -2171,7 +2239,155 @@
 &lt;case_end&gt;&lt;break&gt;</t>
   </si>
   <si>
-    <t>6.2 story fix (BAD STRING)</t>
+    <t>悩んでいるレオーネの像に　反応している。
+どの心を与えますか？
+&lt;select&gt;
+つながる心
+ひたむきな心
+&lt;color_gray&gt;くじけぬ心
+何もしない
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>The hearts you obtained are reacting to the
+distressed statue of Leone. Which will you
+offer?
+&lt;select&gt;
+Connected Heart
+Earnest Heart
+&lt;color_gray&gt;Undaunted Heart
+Nothing
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>悩んでいるレオーネの像に　反応している。
+どの心を与えますか？
+&lt;select&gt;
+&lt;color_gray&gt;つながる心
+&lt;color_gray&gt;ひたむきな心
+くじけぬ心
+何もしない
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>The hearts you obtained are reacting to the
+distressed statue of Leone. Which will you
+offer?
+&lt;select&gt;
+&lt;color_gray&gt;Connected Heart
+&lt;color_gray&gt;Earnest Heart
+Undaunted Heart
+Nothing
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>悩んでいるレオーネの像に　反応している。
+どの心を与えますか？
+&lt;select&gt;
+&lt;color_gray&gt;つながる心
+ひたむきな心
+&lt;color_gray&gt;くじけぬ心
+何もしない
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>The hearts you obtained are reacting to the
+distressed statue of Leone. Which will you
+offer?
+&lt;select&gt;
+&lt;color_gray&gt;Connected Heart
+Earnest Heart
+&lt;color_gray&gt;Undaunted Heart
+Nothing
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>The hearts you obtained are reacting to the
+distressed statue of Leone. Which will you
+offer?
+&lt;select&gt;
+Connected Heart
+&lt;color_gray&gt;Earnest Heart
+&lt;color_gray&gt;Undaunted Heart
+Nothing
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;&lt;break&gt;</t>
   </si>
   <si>
     <t>天をあおぐレオーネの像に　反応している。
@@ -2217,6 +2433,436 @@
 &lt;case_end&gt;&lt;break&gt;</t>
   </si>
   <si>
+    <t>天をあおぐレオーネの像に　反応している。
+どの心を与えますか？
+&lt;select&gt;
+&lt;color_gray&gt;つながる心
+ひたむきな心
+くじけぬ心
+何もしない
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>The hearts you obtained are reacting to the
+heavenly statue of Leone. Which will you
+offer?
+&lt;select&gt;
+&lt;color_gray&gt;Connected Heart
+Earnest Heart
+Undaunted Heart
+Nothing
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>天をあおぐレオーネの像に　反応している。
+どの心を与えますか？
+&lt;select&gt;
+つながる心
+&lt;color_gray&gt;ひたむきな心
+くじけぬ心
+何もしない
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>The hearts you obtained are reacting to the
+heavenly statue of Leone. Which will you
+offer?
+&lt;select&gt;
+Connected Heart
+&lt;color_gray&gt;Earnest Heart
+Undaunted Heart
+Nothing
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>天をあおぐレオーネの像に　反応している。
+どの心を与えますか？
+&lt;select&gt;
+つながる心
+ひたむきな心
+&lt;color_gray&gt;くじけぬ心
+何もしない
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>The hearts you obtained are reacting to the
+heavenly statue of Leone. Which will you
+offer?
+&lt;select&gt;
+Connected Heart
+Earnest Heart
+&lt;color_gray&gt;Undaunted Heart
+Nothing
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>天をあおぐレオーネの像に　反応している。
+どの心を与えますか？
+&lt;select&gt;
+&lt;color_gray&gt;つながる心
+&lt;color_gray&gt;ひたむきな心
+くじけぬ心
+何もしない
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>The hearts you obtained are reacting to the
+heavenly statue of Leone. Which will you
+offer?
+&lt;select&gt;
+&lt;color_gray&gt;Connected Heart
+&lt;color_gray&gt;Earnest Heart
+Undaunted Heart
+Nothing
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>天をあおぐレオーネの像に　反応している。
+どの心を与えますか？
+&lt;select&gt;
+&lt;color_gray&gt;つながる心
+ひたむきな心
+&lt;color_gray&gt;くじけぬ心
+何もしない
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>The hearts you obtained are reacting to the
+heavenly statue of Leone. Which will you
+offer?
+&lt;select&gt;
+&lt;color_gray&gt;Connected Heart
+Earnest Heart
+&lt;color_gray&gt;Undaunted Heart
+Nothing
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>天をあおぐレオーネの像に　反応している。
+どの心を与えますか？
+&lt;select&gt;
+つながる心
+&lt;color_gray&gt;ひたむきな心
+&lt;color_gray&gt;くじけぬ心
+何もしない
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>The hearts you obtained are reacting to the
+heavenly statue of Leone. Which will you
+offer?
+&lt;select&gt;
+Connected Heart
+&lt;color_gray&gt;Earnest Heart
+&lt;color_gray&gt;Undaunted Heart
+Nothing
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>ひざをついたレオーネの像に　反応している。
+どの心を与えますか？
+&lt;select&gt;
+つながる心
+ひたむきな心
+くじけぬ心
+何もしない
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>The hearts you obtained are reacting to the
+kneeling statue of Leone. Which will you
+offer?
+&lt;select&gt;
+Connected Heart
+Earnest Heart
+Undaunted Heart
+Nothing
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>ひざをついたレオーネの像に　反応している。
+どの心を与えますか？
+&lt;select&gt;
+&lt;color_gray&gt;つながる心
+ひたむきな心
+くじけぬ心
+何もしない
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>The hearts you obtained are reacting to the
+kneeling statue of Leone. Which will you
+offer?
+&lt;select&gt;
+&lt;color_gray&gt;Connected Heart
+Earnest Heart
+Undaunted Heart
+Nothing
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>ひざをついたレオーネの像に　反応している。
+どの心を与えますか？
+&lt;select&gt;
+つながる心
+&lt;color_gray&gt;ひたむきな心
+くじけぬ心
+何もしない
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>The hearts you obtained are reacting to the
+kneeling statue of Leone. Which will you
+offer?
+&lt;select&gt;
+Connected Heart
+&lt;color_gray&gt;Earnest Heart
+Undaunted Heart
+Nothing
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>ひざをついたレオーネの像に　反応している。
+どの心を与えますか？
+&lt;select&gt;
+つながる心
+ひたむきな心
+&lt;color_gray&gt;くじけぬ心
+何もしない
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>The hearts you obtained are reacting to the
+kneeling statue of Leone. Which will you
+offer?
+&lt;select&gt;
+Connected Heart
+Earnest Heart
+&lt;color_gray&gt;Undaunted Heart
+Nothing
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;&lt;break&gt;</t>
+  </si>
+  <si>
     <t>ひざをついたレオーネの像に　反応している。
 どの心を与えますか？
 &lt;select&gt;
@@ -2245,6 +2891,92 @@
 &lt;color_gray&gt;Connected Heart
 &lt;color_gray&gt;Earnest Heart
 Undaunted Heart
+Nothing
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>ひざをついたレオーネの像に　反応している。
+どの心を与えますか？
+&lt;select&gt;
+&lt;color_gray&gt;つながる心
+ひたむきな心
+&lt;color_gray&gt;くじけぬ心
+何もしない
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>The hearts you obtained are reacting to the
+kneeling statue of Leone. Which will you
+offer?
+&lt;select&gt;
+&lt;color_gray&gt;Connected Heart
+Earnest Heart
+&lt;color_gray&gt;Undaunted Heart
+Nothing
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>ひざをついたレオーネの像に　反応している。
+どの心を与えますか？
+&lt;select&gt;
+つながる心
+&lt;color_gray&gt;ひたむきな心
+&lt;color_gray&gt;くじけぬ心
+何もしない
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>The hearts you obtained are reacting to the
+kneeling statue of Leone. Which will you
+offer?
+&lt;select&gt;
+Connected Heart
+&lt;color_gray&gt;Earnest Heart
+&lt;color_gray&gt;Undaunted Heart
 Nothing
 &lt;select_end&gt;
 &lt;case 1&gt;
@@ -7038,15 +7770,38 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="B101" s="4"/>
+      <c r="C101" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D101" s="5" t="s">
         <v>217</v>
       </c>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4"/>
+      <c r="O101" s="4"/>
+      <c r="P101" s="4"/>
+      <c r="Q101" s="4"/>
+      <c r="R101" s="4"/>
+      <c r="S101" s="4"/>
+      <c r="T101" s="4"/>
+      <c r="U101" s="4"/>
+      <c r="V101" s="4"/>
+      <c r="W101" s="4"/>
+      <c r="X101" s="4"/>
+      <c r="Y101" s="4"/>
+      <c r="Z101" s="4"/>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
@@ -7061,10 +7816,10 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>217</v>
@@ -7072,1287 +7827,1284 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>223</v>
-      </c>
       <c r="D104" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="D107" s="2" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>270</v>
+        <v>194</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>270</v>
+        <v>194</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>270</v>
+        <v>194</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>306</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>349</v>
+        <v>322</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>351</v>
+        <v>343</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>344</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>353</v>
+        <v>346</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="D168" s="2" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>342</v>
+        <v>362</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>356</v>
+        <v>383</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>342</v>
+        <v>390</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>421</v>
+        <v>390</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>421</v>
+        <v>390</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>429</v>
+        <v>390</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>432</v>
+        <v>390</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>435</v>
+        <v>376</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>479</v>
@@ -8360,178 +9112,379 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>479</v>
+        <v>482</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="C238" s="2" t="s">
+      <c r="C240" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="D238" s="2" t="s">
-        <v>493</v>
+      <c r="D240" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -8570,18 +9523,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>520</v>
+        <v>554</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>521</v>
+        <v>555</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>522</v>
+        <v>556</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>523</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="566">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -5554,6 +5554,24 @@
     <t>Boss battle difficulty</t>
   </si>
   <si>
+    <t>敵の強さを　選んでください。
+（どの強さを選んでも　物語には影響しません）
+&lt;select_nc&gt;
+強い　（特訓スタンプ 2.0倍）
+ふつう（特訓スタンプ 1.5倍）
+弱い
+&lt;select_end&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Choose the difficulty of this battle.
+(This will not affect the story.)
+&lt;select_nc&gt;
+Strong (2x Stamps)
+Normal (1.5x Stamps)
+Weak
+&lt;select_end&gt;&lt;close&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;center&gt;戦士の儀礼は　知恵・心・力の
 ３つの階梯から　なる
 汝　まずは　その　知恵を示せ
@@ -6381,6 +6399,55 @@
     <t>"Altar of the Fish"
 On this altar, the moon statue of beginnings
 will be placed.</t>
+  </si>
+  <si>
+    <t>&lt;speed=0&gt;討伐報酬（紫色の宝箱）が　残っていますが
+本当に　この部屋を出ていいですか？&lt;yesno 2&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>&lt;speed=0&gt;You still haven't received the reward in the
+purple chest. Are you sure you want to leave?&lt;yesno 2&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>&lt;speed=0&gt;この扉から　魔法の迷宮の外に出られるようだ。
+魔法の迷宮の外に出ますか？
+&lt;select&gt;
+外に出る
+続ける
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>&lt;speed=0&gt;This door will exit the Magic Maze.
+What do you want to do?
+&lt;select&gt;
+Leave
+Don't Leave
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>&lt;speed=0&gt;魔法の迷宮から出て　元の場所に
+戻って　よいですか？&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>&lt;speed=0&gt;Leave the Magic Maze?&lt;yesno&gt;&lt;close&gt;</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -9118,21 +9185,21 @@
         <v>481</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D224" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="C224" s="2" t="s">
+      <c r="E224" s="2" t="s">
         <v>485</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="225">
@@ -9143,7 +9210,7 @@
         <v>487</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="226">
@@ -9154,7 +9221,7 @@
         <v>489</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="227">
@@ -9165,7 +9232,7 @@
         <v>491</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="228">
@@ -9176,7 +9243,7 @@
         <v>493</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="229">
@@ -9187,7 +9254,7 @@
         <v>495</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="230">
@@ -9198,7 +9265,7 @@
         <v>497</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="231">
@@ -9209,7 +9276,7 @@
         <v>499</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="232">
@@ -9220,7 +9287,7 @@
         <v>501</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="233">
@@ -9231,7 +9298,7 @@
         <v>503</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="234">
@@ -9242,18 +9309,18 @@
         <v>505</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>506</v>
+        <v>484</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C235" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="C235" s="2" t="s">
+      <c r="D235" s="2" t="s">
         <v>508</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="236">
@@ -9264,7 +9331,7 @@
         <v>510</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="237">
@@ -9275,18 +9342,18 @@
         <v>512</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C238" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="C238" s="2" t="s">
+      <c r="D238" s="2" t="s">
         <v>515</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="239">
@@ -9297,7 +9364,7 @@
         <v>517</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="240">
@@ -9308,7 +9375,7 @@
         <v>519</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="241">
@@ -9319,7 +9386,7 @@
         <v>521</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="242">
@@ -9330,29 +9397,29 @@
         <v>523</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C243" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="C243" s="2" t="s">
+      <c r="D243" s="2" t="s">
         <v>526</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C244" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="C244" s="2" t="s">
+      <c r="D244" s="2" t="s">
         <v>529</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="245">
@@ -9363,7 +9430,7 @@
         <v>531</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="246">
@@ -9374,7 +9441,7 @@
         <v>533</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="247">
@@ -9385,7 +9452,7 @@
         <v>535</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="248">
@@ -9396,7 +9463,7 @@
         <v>537</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="249">
@@ -9407,7 +9474,7 @@
         <v>539</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="250">
@@ -9418,7 +9485,7 @@
         <v>541</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="251">
@@ -9429,7 +9496,7 @@
         <v>543</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="252">
@@ -9440,7 +9507,7 @@
         <v>545</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="253">
@@ -9451,7 +9518,7 @@
         <v>547</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="254">
@@ -9462,7 +9529,7 @@
         <v>549</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="255">
@@ -9473,7 +9540,7 @@
         <v>551</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="256">
@@ -9484,7 +9551,51 @@
         <v>553</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -9523,18 +9634,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="568">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -3077,7 +3077,7 @@
 &lt;break&gt;
 &lt;case_cancel&gt;
 &lt;break&gt;
-&lt;case_end&gt;&lt;br&gt;</t>
+&lt;case_end&gt;</t>
   </si>
   <si>
     <t>I can show the conditions for each of the
@@ -3125,7 +3125,7 @@
 &lt;break&gt;
 &lt;case_cancel&gt;
 &lt;break&gt;
-&lt;case_end&gt;&lt;br&gt;</t>
+&lt;case_end&gt;</t>
   </si>
   <si>
     <t>I can show the conditions for each of the
@@ -3173,7 +3173,7 @@
 &lt;break&gt;
 &lt;case_cancel&gt;
 &lt;break&gt;
-&lt;case_end&gt;&lt;br&gt;</t>
+&lt;case_end&gt;</t>
   </si>
   <si>
     <t>I can show the conditions for each of the
@@ -3221,7 +3221,7 @@
 &lt;break&gt;
 &lt;case_cancel&gt;
 &lt;break&gt;
-&lt;case_end&gt;&lt;br&gt;</t>
+&lt;case_end&gt;</t>
   </si>
   <si>
     <t>I can show the conditions for each of the
@@ -3246,6 +3246,15 @@
 &lt;case_cancel&gt;
 &lt;break&gt;
 &lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>「邪神像が　輝きはじめているな……。
+　天獄の扉が開くまで　まだ時間はかかるだろう。&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>The evil god's statue is beginning to glow...
+It will still be some time before the Heavenly
+Gate opens again.</t>
   </si>
   <si>
     <t>「おうっ！
@@ -8191,7 +8200,7 @@
         <v>275</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>263</v>
+        <v>194</v>
       </c>
     </row>
     <row r="132">
@@ -8202,18 +8211,18 @@
         <v>277</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="D133" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="134">
@@ -8224,18 +8233,18 @@
         <v>282</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="D135" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="136">
@@ -8246,7 +8255,7 @@
         <v>287</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="137">
@@ -8257,7 +8266,7 @@
         <v>289</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="138">
@@ -8268,7 +8277,7 @@
         <v>291</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="139">
@@ -8279,7 +8288,7 @@
         <v>293</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="140">
@@ -8290,7 +8299,7 @@
         <v>295</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="141">
@@ -8301,40 +8310,40 @@
         <v>297</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C142" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="D142" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C143" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="D143" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C144" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="D144" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="145">
@@ -8345,7 +8354,7 @@
         <v>308</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="146">
@@ -8356,7 +8365,7 @@
         <v>310</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="147">
@@ -8367,7 +8376,7 @@
         <v>312</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="148">
@@ -8378,7 +8387,7 @@
         <v>314</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>258</v>
+        <v>306</v>
       </c>
     </row>
     <row r="149">
@@ -8389,18 +8398,18 @@
         <v>316</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>317</v>
+        <v>258</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C150" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="D150" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="151">
@@ -8411,18 +8420,18 @@
         <v>321</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C152" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="D152" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="153">
@@ -8433,7 +8442,7 @@
         <v>326</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="154">
@@ -8444,7 +8453,7 @@
         <v>328</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="155">
@@ -8455,7 +8464,7 @@
         <v>330</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="156">
@@ -8466,7 +8475,7 @@
         <v>332</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="157">
@@ -8477,7 +8486,7 @@
         <v>334</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="158">
@@ -8488,7 +8497,7 @@
         <v>336</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="159">
@@ -8499,7 +8508,7 @@
         <v>338</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="160">
@@ -8510,7 +8519,7 @@
         <v>340</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="161">
@@ -8521,29 +8530,29 @@
         <v>342</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C162" s="7" t="s">
+      <c r="C162" s="2" t="s">
         <v>344</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C163" s="7" t="s">
         <v>346</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="164">
@@ -8554,7 +8563,7 @@
         <v>348</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="165">
@@ -8565,7 +8574,7 @@
         <v>350</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="166">
@@ -8576,7 +8585,7 @@
         <v>352</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="167">
@@ -8586,6 +8595,9 @@
       <c r="C167" s="2" t="s">
         <v>354</v>
       </c>
+      <c r="D167" s="2" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
@@ -8626,41 +8638,38 @@
       <c r="C172" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="D172" s="2" t="s">
-        <v>365</v>
-      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C173" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="D173" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C174" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="D174" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C175" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="D175" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="176">
@@ -8671,18 +8680,18 @@
         <v>375</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C177" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="D177" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="178">
@@ -8693,7 +8702,7 @@
         <v>380</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="179">
@@ -8704,18 +8713,18 @@
         <v>382</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C180" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="D180" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="181">
@@ -8725,6 +8734,9 @@
       <c r="C181" s="2" t="s">
         <v>387</v>
       </c>
+      <c r="D181" s="2" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
@@ -8733,19 +8745,16 @@
       <c r="C182" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="D182" s="2" t="s">
-        <v>390</v>
-      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C183" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="D183" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="184">
@@ -8756,7 +8765,7 @@
         <v>394</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="185">
@@ -8767,7 +8776,7 @@
         <v>396</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="186">
@@ -8778,7 +8787,7 @@
         <v>398</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="187">
@@ -8789,7 +8798,7 @@
         <v>400</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="188">
@@ -8800,7 +8809,7 @@
         <v>402</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
     </row>
     <row r="189">
@@ -8811,7 +8820,7 @@
         <v>404</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="190">
@@ -8822,7 +8831,7 @@
         <v>406</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="191">
@@ -8833,7 +8842,7 @@
         <v>408</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="192">
@@ -8844,7 +8853,7 @@
         <v>410</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="193">
@@ -8855,7 +8864,7 @@
         <v>412</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="194">
@@ -8866,18 +8875,18 @@
         <v>414</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>415</v>
+        <v>378</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C195" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="D195" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="196">
@@ -8888,7 +8897,7 @@
         <v>419</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="197">
@@ -8899,7 +8908,7 @@
         <v>421</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="198">
@@ -8910,7 +8919,7 @@
         <v>423</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="199">
@@ -8921,7 +8930,7 @@
         <v>425</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="200">
@@ -8932,7 +8941,7 @@
         <v>427</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
     </row>
     <row r="201">
@@ -8943,18 +8952,18 @@
         <v>429</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>430</v>
+        <v>378</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C202" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="D202" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="203">
@@ -8965,7 +8974,7 @@
         <v>434</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="204">
@@ -8976,7 +8985,7 @@
         <v>436</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="205">
@@ -8987,7 +8996,7 @@
         <v>438</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="206">
@@ -8998,7 +9007,7 @@
         <v>440</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="207">
@@ -9009,7 +9018,7 @@
         <v>442</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="208">
@@ -9020,7 +9029,7 @@
         <v>444</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="209">
@@ -9031,7 +9040,7 @@
         <v>446</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="210">
@@ -9042,7 +9051,7 @@
         <v>448</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="211">
@@ -9053,7 +9062,7 @@
         <v>450</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="212">
@@ -9064,7 +9073,7 @@
         <v>452</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="213">
@@ -9075,18 +9084,18 @@
         <v>454</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C214" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="C214" s="2" t="s">
+      <c r="D214" s="2" t="s">
         <v>457</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="215">
@@ -9097,62 +9106,62 @@
         <v>459</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C216" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="C216" s="2" t="s">
+      <c r="D216" s="2" t="s">
         <v>462</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C217" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="C217" s="2" t="s">
+      <c r="D217" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C218" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="C218" s="2" t="s">
+      <c r="D218" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C219" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C219" s="2" t="s">
+      <c r="D219" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C220" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="C220" s="2" t="s">
+      <c r="D220" s="2" t="s">
         <v>474</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="221">
@@ -9163,7 +9172,7 @@
         <v>476</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="222">
@@ -9174,18 +9183,18 @@
         <v>478</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C223" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="C223" s="2" t="s">
+      <c r="D223" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="224">
@@ -9196,21 +9205,21 @@
         <v>483</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="D225" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="C225" s="2" t="s">
+      <c r="E225" s="2" t="s">
         <v>487</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="226">
@@ -9221,7 +9230,7 @@
         <v>489</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="227">
@@ -9232,7 +9241,7 @@
         <v>491</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="228">
@@ -9243,7 +9252,7 @@
         <v>493</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="229">
@@ -9254,7 +9263,7 @@
         <v>495</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="230">
@@ -9265,7 +9274,7 @@
         <v>497</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="231">
@@ -9276,7 +9285,7 @@
         <v>499</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="232">
@@ -9287,7 +9296,7 @@
         <v>501</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="233">
@@ -9298,7 +9307,7 @@
         <v>503</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="234">
@@ -9309,7 +9318,7 @@
         <v>505</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="235">
@@ -9320,18 +9329,18 @@
         <v>507</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>508</v>
+        <v>486</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C236" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="C236" s="2" t="s">
+      <c r="D236" s="2" t="s">
         <v>510</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="237">
@@ -9342,7 +9351,7 @@
         <v>512</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="238">
@@ -9353,18 +9362,18 @@
         <v>514</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C239" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="C239" s="2" t="s">
+      <c r="D239" s="2" t="s">
         <v>517</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="240">
@@ -9375,7 +9384,7 @@
         <v>519</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="241">
@@ -9386,7 +9395,7 @@
         <v>521</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="242">
@@ -9397,7 +9406,7 @@
         <v>523</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="243">
@@ -9408,29 +9417,29 @@
         <v>525</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C244" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="C244" s="2" t="s">
+      <c r="D244" s="2" t="s">
         <v>528</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C245" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="C245" s="2" t="s">
+      <c r="D245" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="246">
@@ -9441,7 +9450,7 @@
         <v>533</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="247">
@@ -9452,7 +9461,7 @@
         <v>535</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="248">
@@ -9463,7 +9472,7 @@
         <v>537</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="249">
@@ -9474,7 +9483,7 @@
         <v>539</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="250">
@@ -9485,7 +9494,7 @@
         <v>541</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="251">
@@ -9496,7 +9505,7 @@
         <v>543</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="252">
@@ -9507,7 +9516,7 @@
         <v>545</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="253">
@@ -9518,7 +9527,7 @@
         <v>547</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="254">
@@ -9529,7 +9538,7 @@
         <v>549</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="255">
@@ -9540,7 +9549,7 @@
         <v>551</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="256">
@@ -9551,7 +9560,7 @@
         <v>553</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="257">
@@ -9562,7 +9571,7 @@
         <v>555</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="258">
@@ -9573,7 +9582,7 @@
         <v>557</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>283</v>
+        <v>531</v>
       </c>
     </row>
     <row r="259">
@@ -9584,7 +9593,7 @@
         <v>559</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="260">
@@ -9595,7 +9604,18 @@
         <v>561</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -9634,18 +9654,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -3066,7 +3066,7 @@
 やめる
 &lt;select_end&gt;
 &lt;case 1&gt;
-&lt;break&gt;
+&lt;close&gt;
 &lt;case 2&gt;
 &lt;close&gt;
 &lt;case 3&gt;
@@ -3114,7 +3114,7 @@
 やめる
 &lt;select_end&gt;
 &lt;case 1&gt;
-&lt;break&gt;
+&lt;close&gt;
 &lt;case 2&gt;
 &lt;close&gt;
 &lt;case 3&gt;
@@ -3162,7 +3162,7 @@
 やめる
 &lt;select_end&gt;
 &lt;case 1&gt;
-&lt;break&gt;
+&lt;close&gt;
 &lt;case 2&gt;
 &lt;close&gt;
 &lt;case 3&gt;
@@ -3210,7 +3210,7 @@
 やめる
 &lt;select_end&gt;
 &lt;case 1&gt;
-&lt;break&gt;
+&lt;close&gt;
 &lt;case 2&gt;
 &lt;close&gt;
 &lt;case 3&gt;

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -3090,7 +3090,7 @@
 Cancel
 &lt;select_end&gt;
 &lt;case 1&gt;
-&lt;break&gt;
+&lt;close&gt;
 &lt;case 2&gt;
 &lt;close&gt;
 &lt;case 3&gt;
@@ -3138,7 +3138,7 @@
 Cancel
 &lt;select_end&gt;
 &lt;case 1&gt;
-&lt;break&gt;
+&lt;close&gt;
 &lt;case 2&gt;
 &lt;close&gt;
 &lt;case 3&gt;
@@ -3186,7 +3186,7 @@
 Cancel
 &lt;select_end&gt;
 &lt;case 1&gt;
-&lt;break&gt;
+&lt;close&gt;
 &lt;case 2&gt;
 &lt;close&gt;
 &lt;case 3&gt;
@@ -3234,7 +3234,7 @@
 Cancel
 &lt;select_end&gt;
 &lt;case 1&gt;
-&lt;break&gt;
+&lt;close&gt;
 &lt;case 2&gt;
 &lt;close&gt;
 &lt;case 3&gt;

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -3307,7 +3307,7 @@
   <si>
     <t>扉の中から　まがまがしい力を感じる……。
 &lt;br&gt;
-パーティ同盟バトルに　進みます。
+パーティ同盟バトルに進みます。
 自動的に仲間を探して　この先へ進みますが
 よろしいですか？
 &lt;yesno&gt;&lt;close&gt;</t>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -832,7 +832,7 @@
 闘いの神を　象った像なのだろうか……？
 どうやら　再び　強敵と戦えるようだ。
 &lt;br&gt;
-パーティ同盟バトルに　進みます。
+パーティ同盟バトルに進みます。
 自動的に仲間を探して
 もう一度　戦いに　挑みますか？
 &lt;yesno&gt;&lt;close&gt;</t>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="572">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -6457,6 +6457,46 @@
   </si>
   <si>
     <t>&lt;speed=0&gt;Leave the Magic Maze?&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>探査回数が　０になったため
+簡易探査モードに　切り替わりました。
+&lt;br&gt;
+&lt;color_yellow&gt;
+簡易探査モードでは　残りの探査回数がなくても
+源世庫パニガルムに　入ることができますが
+いくつかの制限が　かかります。
+&lt;br&gt;
+簡易探査モードでは　レッドログ以外の
+パニガログの内容が　変更されます。
+また　源世の聖標を使用することができません。
+&lt;br&gt;
+なお　簡易探査モードは　毎週日曜日６時の
+リセットに合わせて　自動で解除されます。</t>
+  </si>
+  <si>
+    <t>Your explanation count has reached 0.
+You have now switched to simple
+exploration mode.
+&lt;br&gt;
+&lt;color_yellow&gt;
+In simple exploration mode, you can still
+enter Panigalm, albeit with some restrictions.
+&lt;br&gt;
+n simple exploration mode, the contents of
+all Panilogs except Red are changed. Also,
+Sacred Marks cannot be used.
+&lt;br&gt;
+Simple exploration mode will reset at
+6 a.m. JST every Sunday.</t>
+  </si>
+  <si>
+    <t>簡易探査モードでは
+源世の聖標を　使用することができません。</t>
+  </si>
+  <si>
+    <t>You cannot use Sacred Marks in simple
+exploration mode.</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -9618,6 +9658,28 @@
         <v>285</v>
       </c>
     </row>
+    <row r="262">
+      <c r="A262" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9654,18 +9716,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="574">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -6475,7 +6475,7 @@
 リセットに合わせて　自動で解除されます。</t>
   </si>
   <si>
-    <t>Your explanation count has reached 0.
+    <t>Your exploration count has reached 0.
 You have now switched to simple
 exploration mode.
 &lt;br&gt;
@@ -6483,8 +6483,8 @@
 In simple exploration mode, you can still
 enter Panigalm, albeit with some restrictions.
 &lt;br&gt;
-n simple exploration mode, the contents of
-all Panilogs except Red are changed. Also,
+In simple exploration mode, the contents of
+all Panigalogs except Red are changed. Also,
 Sacred Marks cannot be used.
 &lt;br&gt;
 Simple exploration mode will reset at
@@ -6497,6 +6497,19 @@
   <si>
     <t>You cannot use Sacred Marks in simple
 exploration mode.</t>
+  </si>
+  <si>
+    <t>まだ取っていない　パニガログがあります。
+このまま　探査を終了し　ダンジョンから出ると
+未取得のパニガログは　消えてしまいます。
+&lt;br&gt;
+源世庫パニガルムを　出てよろしいですか？
+&lt;yesno2&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>You have an unclaimed Panigalog, and will
+lose it if you leave now. Leave anyway?
+&lt;yesno2&gt;&lt;close&gt;</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -9680,6 +9693,17 @@
         <v>280</v>
       </c>
     </row>
+    <row r="264">
+      <c r="A264" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9716,18 +9740,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="577">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -6510,6 +6510,21 @@
     <t>You have an unclaimed Panigalog, and will
 lose it if you leave now. Leave anyway?
 &lt;yesno2&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_off&gt;
+スタンプが押されました。受け取れるギフトや
+受け取り方法は　だいじなものの
+『ギフトカード』から　確認することができます。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_off&gt;
+You received a stamp. To see your stamp
+progress and rewards, use the "Gift Card"
+located in your Key Items.</t>
+  </si>
+  <si>
+    <t>Stamp card</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -9704,6 +9719,17 @@
         <v>280</v>
       </c>
     </row>
+    <row r="265">
+      <c r="A265" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9740,18 +9766,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="579">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -6525,6 +6525,14 @@
   </si>
   <si>
     <t>Stamp card</t>
+  </si>
+  <si>
+    <t>探査回数が　回復しました。
+源世庫パニガルムの　探査に参加できます。</t>
+  </si>
+  <si>
+    <t>Your exploration count has been reset.
+You can once again explore Panigalm.</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -9730,6 +9738,17 @@
         <v>572</v>
       </c>
     </row>
+    <row r="266">
+      <c r="A266" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9766,18 +9785,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
   </sheetData>
